--- a/data/ts_datasets.xlsx
+++ b/data/ts_datasets.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,13 +734,13 @@
         <v>3582</v>
       </c>
       <c r="E15">
-        <v>945</v>
+        <v>315</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
